--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936052.103163118</v>
+        <v>1934729.539351182</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.03394878</v>
+        <v>5866991.033948785</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736051</v>
+        <v>1783678.472736053</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>170.7481240559725</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>296.3165330601028</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>262.8039482781271</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1960204883557</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8970899955588</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>235.5584819305233</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1062,16 +1062,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>93.60791859913577</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>213.176054231393</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>388.6597985499423</v>
       </c>
       <c r="E8" t="n">
-        <v>92.96465700163724</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>81.57247490646454</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>186.5768411754253</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>271.4342543713333</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>76.26594387726834</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>208.42877332863</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1590,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.56310642661438</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>216.6467621941107</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>128.2026151578589</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>66.38038114964104</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1824,7 +1824,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1897,13 +1897,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V17" t="n">
-        <v>314.0518665500859</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.60889756510008</v>
+        <v>143.840129933826</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2149,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.62709520730909</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>79.34530250563822</v>
+        <v>79.34530250563729</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>109.8507394485077</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>183.1891117048806</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>193.7938350701834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
-        <v>79.3453025056391</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>19.70188050987013</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>183.1891117048806</v>
@@ -2769,19 +2769,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>167.8380139294127</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>190.1198520010252</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>306.0455584304623</v>
+        <v>79.34530250563729</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>66.07896560696121</v>
       </c>
       <c r="C31" t="n">
-        <v>101.9355678040283</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
         <v>279.9659758737533</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>256.6554706538664</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
         <v>306.0455584304623</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.88432998251145</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>183.4965574034491</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.5555146323704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S37" t="n">
         <v>183.1891117048806</v>
@@ -3486,10 +3486,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>144.2110620729146</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>173.719034683046</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.39158310979376</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>179.3261549865154</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U41" t="n">
         <v>254.4761865113606</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>170.2270503965679</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>18.62548790105694</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>145.0042940723129</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.4187119430209</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794513</v>
+        <v>17.38633807794515</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>78.20287430981217</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S46" t="n">
         <v>183.1891117048806</v>
@@ -4191,16 +4191,16 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>175.9287414815032</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1782.763876502378</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>537.7254774811266</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1054.568412147452</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960225</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959275</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329.2045039635594</v>
+        <v>358.622931898602</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1016.701348351886</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>742.815603291408</v>
+        <v>596.9667940389186</v>
       </c>
       <c r="W4" t="n">
-        <v>463.7459388002824</v>
+        <v>596.9667940389186</v>
       </c>
       <c r="X4" t="n">
-        <v>329.2045039635594</v>
+        <v>358.622931898602</v>
       </c>
       <c r="Y4" t="n">
-        <v>329.2045039635594</v>
+        <v>358.622931898602</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>654.2465468795142</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C5" t="n">
-        <v>648.1623602331883</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D5" t="n">
-        <v>647.7388343666529</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E5" t="n">
-        <v>233.3986188835496</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>216.4086108776412</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4570,13 +4570,13 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
         <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
         <v>1014.011766457887</v>
@@ -4603,16 +4603,16 @@
         <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.404399595914</v>
+        <v>894.5120813627283</v>
       </c>
       <c r="Y5" t="n">
-        <v>1064.467726544004</v>
+        <v>894.5120813627283</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.6991486406494</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6057762023659</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1476.610529120012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1193.812381666136</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1193.812381666136</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>914.7427171750103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>676.3988550346937</v>
+        <v>1355.834634541974</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.3988550346937</v>
+        <v>1131.098935930739</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1058.286950919918</v>
+        <v>1280.493434973059</v>
       </c>
       <c r="C8" t="n">
-        <v>648.1623602331882</v>
+        <v>1274.409248326733</v>
       </c>
       <c r="D8" t="n">
-        <v>243.6984303262487</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4813,16 +4813,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.404399595914</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y8" t="n">
-        <v>1064.467726544004</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>489.9926484891412</v>
+        <v>605.7731676935686</v>
       </c>
       <c r="C10" t="n">
-        <v>489.9926484891412</v>
+        <v>434.6797952552851</v>
       </c>
       <c r="D10" t="n">
-        <v>489.9926484891412</v>
+        <v>434.6797952552851</v>
       </c>
       <c r="E10" t="n">
-        <v>489.9926484891412</v>
+        <v>273.7689801236045</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>956.7620193743113</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>956.7620193743113</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W10" t="n">
-        <v>677.6923548831857</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X10" t="n">
-        <v>677.6923548831857</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.6923548831857</v>
+        <v>793.4728740876129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C11" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D11" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E11" t="n">
-        <v>1283.530171043528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F11" t="n">
-        <v>862.4997589972158</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G11" t="n">
-        <v>453.771474890048</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>874.0699105066985</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N12" t="n">
-        <v>874.0699105066985</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
         <v>1578.027001052593</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.4099627738212</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3165903355377</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D13" t="n">
-        <v>495.8219456584478</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>334.9111305267672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2800046373585</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1326.835761513509</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>1044.037614059633</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>770.1518689991551</v>
       </c>
       <c r="W13" t="n">
-        <v>826.4099627738212</v>
+        <v>491.0822045080294</v>
       </c>
       <c r="X13" t="n">
-        <v>826.4099627738212</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="Y13" t="n">
-        <v>826.4099627738212</v>
+        <v>252.7383423677128</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5278,7 +5278,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
         <v>885.5886702674165</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4563.636292181024</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4084.369316387393</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V14" t="n">
-        <v>3734.531761723874</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W14" t="n">
-        <v>3350.771460859042</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X14" t="n">
-        <v>2950.128063027995</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y14" t="n">
-        <v>2549.191389976085</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1615.520903630173</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="C16" t="n">
-        <v>383.6521038908477</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="D16" t="n">
-        <v>383.6521038908477</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E16" t="n">
-        <v>222.7412887591672</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F16" t="n">
-        <v>222.7412887591672</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>222.7412887591672</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1555.591704261331</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1369.199936141241</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1129.651197117943</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>846.8530496640672</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.371818948615</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.371818948615</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>588.462840695405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>417.3694682571215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.696393154561</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.898245700685</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.898245700685</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>1000.898245700685</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.898245700685</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>776.1625470894494</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M21" t="n">
-        <v>1789.888428857139</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
         <v>1789.888428857139</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>828.6312213896092</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>828.6312213896092</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>828.6312213896092</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092807</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406077</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499138</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E23" t="n">
         <v>1086.835254016034</v>
       </c>
       <c r="F23" t="n">
-        <v>665.804841969722</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964485</v>
+        <v>257.2495415964476</v>
       </c>
       <c r="H23" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477955</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
       </c>
       <c r="M23" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809207</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757297</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M24" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N24" t="n">
-        <v>833.0698273472249</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.9146087838537</v>
+        <v>570.4633037969459</v>
       </c>
       <c r="C25" t="n">
-        <v>256.9146087838537</v>
+        <v>570.4633037969459</v>
       </c>
       <c r="D25" t="n">
-        <v>97.41996410676373</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="E25" t="n">
-        <v>97.41996410676373</v>
+        <v>410.9686591198559</v>
       </c>
       <c r="F25" t="n">
-        <v>97.41996410676373</v>
+        <v>246.3375332304471</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676373</v>
+        <v>246.3375332304471</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J25" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M25" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N25" t="n">
         <v>1145.132879486175</v>
@@ -6171,28 +6171,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T25" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U25" t="n">
-        <v>1152.595270934434</v>
+        <v>1234.37905622583</v>
       </c>
       <c r="V25" t="n">
-        <v>878.7095258739555</v>
+        <v>960.493311165352</v>
       </c>
       <c r="W25" t="n">
-        <v>878.7095258739555</v>
+        <v>681.4236466742263</v>
       </c>
       <c r="X25" t="n">
-        <v>640.3656637336389</v>
+        <v>681.4236466742263</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.6143151778981</v>
+        <v>681.4236466742263</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092808</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C26" t="n">
-        <v>1905.639399406078</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D26" t="n">
-        <v>1501.175469499139</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E26" t="n">
-        <v>1086.835254016035</v>
+        <v>1236.142604233888</v>
       </c>
       <c r="F26" t="n">
-        <v>665.8048419697229</v>
+        <v>815.112192187575</v>
       </c>
       <c r="G26" t="n">
-        <v>257.2495415964494</v>
+        <v>406.5568918143015</v>
       </c>
       <c r="H26" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J26" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6238,40 +6238,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210384</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168606</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505087</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640255</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809208</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757298</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676374</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676374</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676374</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M27" t="n">
-        <v>97.41996410676374</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N27" t="n">
-        <v>436.4543165702214</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O27" t="n">
-        <v>1161.994247859146</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P27" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q27" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.9645456204952</v>
+        <v>920.7227187698359</v>
       </c>
       <c r="C28" t="n">
-        <v>395.9645456204952</v>
+        <v>749.6293463315524</v>
       </c>
       <c r="D28" t="n">
-        <v>395.9645456204952</v>
+        <v>590.1347016544623</v>
       </c>
       <c r="E28" t="n">
-        <v>395.9645456204952</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="F28" t="n">
-        <v>231.3334197310865</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G28" t="n">
-        <v>231.3334197310865</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H28" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I28" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M28" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N28" t="n">
         <v>1145.132879486175</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.171987275931</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519375</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="V28" t="n">
-        <v>913.3780722519375</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="W28" t="n">
-        <v>634.3084077608119</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="X28" t="n">
-        <v>395.9645456204952</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.9645456204952</v>
+        <v>1108.42242516388</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E29" t="n">
         <v>1086.835254016034</v>
       </c>
       <c r="F29" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2396990962708</v>
+        <v>257.2495415964476</v>
       </c>
       <c r="H29" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>436.4543165702214</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>436.4543165702214</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M30" t="n">
-        <v>436.4543165702214</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N30" t="n">
-        <v>436.4543165702214</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O30" t="n">
-        <v>1161.994247859146</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P30" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q30" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.2959992425132</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C31" t="n">
-        <v>258.3307792384443</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D31" t="n">
-        <v>258.3307792384443</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M31" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N31" t="n">
         <v>1145.132879486175</v>
@@ -6645,28 +6645,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1435.389185958427</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>1152.595270934434</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V31" t="n">
-        <v>878.7095258739555</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W31" t="n">
-        <v>599.6398613828298</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X31" t="n">
-        <v>361.2959992425132</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.2959992425132</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F32" t="n">
-        <v>665.804841969722</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G32" t="n">
         <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
         <v>365.9950463732503</v>
@@ -6712,40 +6712,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K33" t="n">
-        <v>149.5207509155738</v>
+        <v>516.4015578916566</v>
       </c>
       <c r="L33" t="n">
-        <v>149.5207509155738</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M33" t="n">
-        <v>1015.482341531884</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482341531884</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O33" t="n">
-        <v>1741.022272820809</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P33" t="n">
-        <v>1741.022272820809</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q33" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.6869640890985</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6869640890985</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D34" t="n">
-        <v>135.6869640890985</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E34" t="n">
-        <v>135.6869640890985</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J34" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M34" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N34" t="n">
         <v>1145.132879486175</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519375</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V34" t="n">
-        <v>639.4923271914595</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W34" t="n">
-        <v>360.4226627003338</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X34" t="n">
-        <v>360.4226627003338</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.6869640890985</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092808</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406078</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499139</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E35" t="n">
         <v>1315.825411515857</v>
@@ -6934,13 +6934,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J35" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
@@ -6949,40 +6949,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210384</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168606</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505087</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640255</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809208</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757298</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J36" t="n">
-        <v>298.8031752824191</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>731.3135030713388</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>217.1730091899662</v>
+        <v>588.9187963538177</v>
       </c>
       <c r="C37" t="n">
-        <v>217.1730091899662</v>
+        <v>417.8254239155343</v>
       </c>
       <c r="D37" t="n">
-        <v>217.1730091899662</v>
+        <v>258.3307792384443</v>
       </c>
       <c r="E37" t="n">
-        <v>217.1730091899662</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F37" t="n">
-        <v>217.1730091899662</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G37" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I37" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J37" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L37" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M37" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N37" t="n">
         <v>1145.132879486175</v>
@@ -7119,7 +7119,7 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731034</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S37" t="n">
         <v>1435.389185958427</v>
@@ -7131,16 +7131,16 @@
         <v>1196.171987275931</v>
       </c>
       <c r="V37" t="n">
-        <v>922.2862422154528</v>
+        <v>922.2862422154526</v>
       </c>
       <c r="W37" t="n">
-        <v>643.2165777243272</v>
+        <v>922.2862422154526</v>
       </c>
       <c r="X37" t="n">
-        <v>404.8727155840106</v>
+        <v>776.6185027478621</v>
       </c>
       <c r="Y37" t="n">
-        <v>404.8727155840106</v>
+        <v>776.6185027478621</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G38" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547876</v>
@@ -7186,40 +7186,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>479.6552594203819</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1376.906193038828</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.446124327753</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2102.446124327753</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
         <v>2102.446124327753</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>595.1807777487466</v>
+        <v>256.9146087838537</v>
       </c>
       <c r="C40" t="n">
-        <v>424.0874053104631</v>
+        <v>256.9146087838537</v>
       </c>
       <c r="D40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I40" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025715</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M40" t="n">
-        <v>852.656309288865</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N40" t="n">
         <v>1145.132879486175</v>
@@ -7356,28 +7356,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>1620.428692731034</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T40" t="n">
-        <v>1435.389185958427</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U40" t="n">
-        <v>1152.595270934434</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V40" t="n">
-        <v>1152.595270934434</v>
+        <v>999.0638340265313</v>
       </c>
       <c r="W40" t="n">
-        <v>1152.595270934434</v>
+        <v>719.9941695354056</v>
       </c>
       <c r="X40" t="n">
-        <v>914.251408794117</v>
+        <v>481.650307395089</v>
       </c>
       <c r="Y40" t="n">
-        <v>689.5157101828817</v>
+        <v>256.9146087838537</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233888</v>
       </c>
       <c r="F41" t="n">
-        <v>894.7949994695443</v>
+        <v>815.112192187575</v>
       </c>
       <c r="G41" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143015</v>
       </c>
       <c r="H41" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547876</v>
@@ -7423,40 +7423,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210384</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168606</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505087</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640255</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809208</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676374</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676374</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>778.2043133443128</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3425.700336099611</v>
+        <v>772.3635463857082</v>
       </c>
       <c r="C43" t="n">
-        <v>3425.700336099611</v>
+        <v>601.2701739474247</v>
       </c>
       <c r="D43" t="n">
-        <v>3266.205691422521</v>
+        <v>441.7755292703347</v>
       </c>
       <c r="E43" t="n">
-        <v>3266.205691422521</v>
+        <v>280.8647141386542</v>
       </c>
       <c r="F43" t="n">
-        <v>3266.205691422521</v>
+        <v>116.2335882492455</v>
       </c>
       <c r="G43" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H43" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.205691422521</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263328</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.05300863002</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.442036604622</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.918606801932</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.228597795071</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217909</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4870.998205338187</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T43" t="n">
-        <v>4724.52922142676</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U43" t="n">
-        <v>4441.735306402767</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V43" t="n">
-        <v>4167.849561342288</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="W43" t="n">
-        <v>3888.779896851163</v>
+        <v>1423.142813531304</v>
       </c>
       <c r="X43" t="n">
-        <v>3650.436034710846</v>
+        <v>1184.798951390988</v>
       </c>
       <c r="Y43" t="n">
-        <v>3425.700336099611</v>
+        <v>960.0632527797526</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G44" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H44" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J44" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L44" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M44" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O44" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y44" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J45" t="n">
         <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>590.8918437439524</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>1271.676192981502</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3688.630471443707</v>
+        <v>176.4127664399073</v>
       </c>
       <c r="C46" t="n">
-        <v>3688.630471443707</v>
+        <v>176.4127664399073</v>
       </c>
       <c r="D46" t="n">
-        <v>3529.135826766617</v>
+        <v>176.4127664399073</v>
       </c>
       <c r="E46" t="n">
-        <v>3529.135826766617</v>
+        <v>176.4127664399073</v>
       </c>
       <c r="F46" t="n">
-        <v>3529.135826766617</v>
+        <v>176.4127664399073</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766617</v>
+        <v>176.4127664399073</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642934</v>
+        <v>176.4127664399073</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046789</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S46" t="n">
-        <v>4604.174913274182</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.957714591686</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U46" t="n">
-        <v>4364.957714591686</v>
+        <v>913.3780722519373</v>
       </c>
       <c r="V46" t="n">
-        <v>4091.071969531208</v>
+        <v>639.4923271914593</v>
       </c>
       <c r="W46" t="n">
-        <v>3913.366170054942</v>
+        <v>639.4923271914593</v>
       </c>
       <c r="X46" t="n">
-        <v>3913.366170054942</v>
+        <v>401.1484650511426</v>
       </c>
       <c r="Y46" t="n">
-        <v>3688.630471443707</v>
+        <v>176.4127664399073</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -7999,10 +7999,10 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175286</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>502.7883324430332</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,22 +8303,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>425.4271248393445</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>237.1384347635729</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,19 +8461,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>296.5410069764446</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>558.5343765177347</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428702</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8771,19 +8771,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>651.5171678328039</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>204.0221919942796</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>167.8946794718224</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>296.4004197234629</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>448.4101882023532</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654507</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M24" t="n">
-        <v>34.34760704978718</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N24" t="n">
-        <v>772.4429102964091</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654507</v>
+        <v>468.470280247953</v>
       </c>
       <c r="M27" t="n">
-        <v>34.34760704978718</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N27" t="n">
-        <v>371.8211822388297</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>53.3111688958806</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>383.4886646764978</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654507</v>
+        <v>468.470280247953</v>
       </c>
       <c r="M30" t="n">
-        <v>34.34760704978718</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N30" t="n">
-        <v>29.36224035654928</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>53.3111688958806</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856355</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K33" t="n">
-        <v>93.65678017685369</v>
+        <v>464.2434538900687</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654507</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654928</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>53.3111688958806</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>477.9088417729241</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M36" t="n">
-        <v>34.34760704978718</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N36" t="n">
-        <v>29.36224035654928</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654507</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M39" t="n">
-        <v>420.4438649423308</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978718</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N42" t="n">
-        <v>817.6505689341619</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O42" t="n">
-        <v>35.95062976461615</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0687818462712</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
-        <v>29.36224035654928</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95062976461614</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>71.84543676532957</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>28.72447830443494</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>36.36515802722576</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>37.84312462897432</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.90876548473901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.03960999171331</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V17" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>170.5443540679648</v>
+        <v>93.31312169923888</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.8612464178138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>226.7002559248241</v>
+        <v>226.7002559248251</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>75.97196988159628</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24375,13 +24375,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>112.8724405582094</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.69450655493952</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>226.7002559248232</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>127.7265129225765</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>54.65032769571027</v>
       </c>
     </row>
     <row r="29">
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.7002559248251</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>119.7437437231427</v>
       </c>
       <c r="C31" t="n">
-        <v>67.4468709098724</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>147.8142767156744</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914967</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>125.1004846480032</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.5010685613433</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>226.7002559248232</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>96.67443963873666</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>46.94555392897287</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
         <v>147.4283934324466</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>91.74936144599883</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.43112622031019</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>91.82073262335788</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>226.7002559248229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>146.8755806602863</v>
       </c>
       <c r="H43" t="n">
         <v>147.4283934324466</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.96594743848279</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S43" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>91.82073262335828</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.7002559248237</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26040,10 +26040,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>34.66956624839723</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>100.3502263647112</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638206.3182978645</v>
+        <v>638206.3182978646</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>638206.3182978646</v>
+        <v>638206.3182978645</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>638206.3182978646</v>
+        <v>638206.3182978648</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638206.3182978646</v>
+        <v>638206.3182978648</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656720.2748988468</v>
+        <v>656720.2748988466</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656720.2748988469</v>
+        <v>656720.2748988465</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>656720.2748988469</v>
+        <v>656720.2748988468</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656720.2748988468</v>
+        <v>656720.2748988466</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>488647.1790973708</v>
       </c>
       <c r="D2" t="n">
-        <v>488647.1790973708</v>
+        <v>488647.1790973707</v>
       </c>
       <c r="E2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="F2" t="n">
         <v>434473.0013026407</v>
       </c>
       <c r="G2" t="n">
+        <v>434473.0013026406</v>
+      </c>
+      <c r="H2" t="n">
         <v>434473.0013026407</v>
       </c>
-      <c r="H2" t="n">
-        <v>434473.0013026408</v>
-      </c>
       <c r="I2" t="n">
-        <v>448846.325267134</v>
+        <v>448846.3252671339</v>
       </c>
       <c r="J2" t="n">
         <v>448846.3252671339</v>
@@ -26349,13 +26349,13 @@
         <v>448846.3252671341</v>
       </c>
       <c r="N2" t="n">
-        <v>448846.3252671341</v>
+        <v>448846.3252671338</v>
       </c>
       <c r="O2" t="n">
-        <v>448846.325267134</v>
+        <v>448846.3252671339</v>
       </c>
       <c r="P2" t="n">
-        <v>448846.325267134</v>
+        <v>448846.3252671339</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588492</v>
+        <v>45948.62261588471</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006827</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>193745.8212557931</v>
       </c>
       <c r="E4" t="n">
-        <v>59647.11115782199</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="F4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782198</v>
@@ -26441,10 +26441,10 @@
         <v>59023.65497279317</v>
       </c>
       <c r="J4" t="n">
-        <v>59023.65497279317</v>
+        <v>59023.65497279319</v>
       </c>
       <c r="K4" t="n">
-        <v>59023.65497279317</v>
+        <v>59023.65497279318</v>
       </c>
       <c r="L4" t="n">
         <v>59023.65497279317</v>
@@ -26456,7 +26456,7 @@
         <v>59023.65497279317</v>
       </c>
       <c r="O4" t="n">
-        <v>59023.65497279318</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="P4" t="n">
         <v>59023.65497279317</v>
@@ -26490,28 +26490,28 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="J5" t="n">
         <v>74967.83978868564</v>
       </c>
-      <c r="J5" t="n">
-        <v>74967.83978868565</v>
-      </c>
       <c r="K5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="M5" t="n">
         <v>74967.83978868564</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="O5" t="n">
         <v>74967.83978868564</v>
       </c>
-      <c r="M5" t="n">
-        <v>74967.83978868565</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74967.83978868564</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74967.83978868565</v>
-      </c>
       <c r="P5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54576.78286996612</v>
+        <v>54576.78286996608</v>
       </c>
       <c r="C6" t="n">
         <v>229532.2927630802</v>
       </c>
       <c r="D6" t="n">
-        <v>229532.2927630802</v>
+        <v>229532.2927630801</v>
       </c>
       <c r="E6" t="n">
-        <v>111830.9170005022</v>
+        <v>111650.3364078529</v>
       </c>
       <c r="F6" t="n">
-        <v>303960.6798999454</v>
+        <v>303780.0993072963</v>
       </c>
       <c r="G6" t="n">
-        <v>303960.6798999454</v>
+        <v>303780.0993072962</v>
       </c>
       <c r="H6" t="n">
-        <v>303960.6798999456</v>
+        <v>303780.0993072963</v>
       </c>
       <c r="I6" t="n">
-        <v>268906.2078897703</v>
+        <v>268773.5383770029</v>
       </c>
       <c r="J6" t="n">
-        <v>178260.0296997601</v>
+        <v>178127.3601869926</v>
       </c>
       <c r="K6" t="n">
-        <v>314854.830505655</v>
+        <v>314722.1609928875</v>
       </c>
       <c r="L6" t="n">
-        <v>314854.8305056551</v>
+        <v>314722.1609928877</v>
       </c>
       <c r="M6" t="n">
-        <v>154496.3800049726</v>
+        <v>154363.710492205</v>
       </c>
       <c r="N6" t="n">
-        <v>314854.8305056553</v>
+        <v>314722.1609928875</v>
       </c>
       <c r="O6" t="n">
-        <v>314854.8305056551</v>
+        <v>314722.1609928876</v>
       </c>
       <c r="P6" t="n">
-        <v>314854.8305056552</v>
+        <v>314722.1609928877</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="P3" t="n">
-        <v>42.5994067681289</v>
+        <v>42.59940676812871</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="K4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="O4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812889</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176167</v>
+        <v>52.20333020176145</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700258</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>235.2752207238901</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>100.610773261288</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27551,13 +27551,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8.342939331746209</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>102.7644030305577</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>231.7439112705374</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27675,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>161.0784819222137</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>90.91993183975306</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>22.78436928752041</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11.75949205792773</v>
       </c>
       <c r="E8" t="n">
-        <v>317.232156326635</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>81.41233972405011</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>93.39332480391181</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947898</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064925</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351442</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323046</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163529</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949136</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753718</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707907</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106971</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284891</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017093</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J24" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430397</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863024</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524838</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886167</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875701</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513128</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J25" t="n">
-        <v>5.43107518747112</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388313</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944229</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676797</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935849</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035844</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987462</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871564</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750387</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947898</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064925</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351442</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323046</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163529</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949136</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753718</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707907</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106971</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284891</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017093</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J27" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430397</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863024</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524838</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886167</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875701</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513128</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J28" t="n">
-        <v>5.43107518747112</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388313</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944229</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676797</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935849</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035844</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987462</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871564</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750387</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947898</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064925</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351442</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323046</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163529</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949136</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753718</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707907</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106971</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284891</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017093</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J30" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430397</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863024</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524838</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886167</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875701</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513128</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J31" t="n">
-        <v>5.43107518747112</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388313</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944229</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676797</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935849</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035844</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987462</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871564</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750387</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947898</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064925</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351442</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323046</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163529</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949136</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753718</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707907</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106971</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284891</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017093</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J33" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430397</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863024</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524838</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886167</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875701</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513128</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J34" t="n">
-        <v>5.43107518747112</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388313</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944229</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676797</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935849</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035844</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987462</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871564</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750387</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947898</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064925</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351442</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323046</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163529</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949136</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753718</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707907</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106971</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284891</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017093</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J36" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430397</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863024</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524838</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886167</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875701</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513128</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J37" t="n">
-        <v>5.43107518747112</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388313</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944229</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676797</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935849</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035844</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987462</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871564</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750387</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947898</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064925</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351442</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323046</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163529</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949136</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753718</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707907</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106971</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284891</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017093</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J39" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430397</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863024</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524838</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886167</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875701</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513128</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J40" t="n">
-        <v>5.43107518747112</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388313</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944229</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676797</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935849</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035844</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987462</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871564</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750387</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947898</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064925</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351442</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710215</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323046</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163529</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949136</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753718</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707907</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106971</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284891</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017093</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J42" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430397</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863024</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720071</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524838</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006028217938886167</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875701</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513128</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J43" t="n">
-        <v>5.43107518747112</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388313</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944229</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676797</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935849</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035844</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987462</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871564</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008247</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004190105583750387</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552919</v>
+        <v>0.1712538965552912</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096884</v>
+        <v>1.753853968096876</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947899</v>
+        <v>6.602265846947869</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275972</v>
+        <v>14.53496040275966</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394523</v>
+        <v>21.78413784394514</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064926</v>
+        <v>27.02514928064913</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351443</v>
+        <v>30.07068576351429</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710215</v>
+        <v>30.55726089710202</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323047</v>
+        <v>28.85435496323034</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202169</v>
+        <v>24.62652439202158</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.4934942216353</v>
+        <v>18.49349422163521</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949137</v>
+        <v>10.75752757949132</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753719</v>
+        <v>3.902448167753701</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707909</v>
+        <v>0.7496639321707874</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442335</v>
+        <v>0.01370031172442329</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09162891267106972</v>
+        <v>0.0916289126710693</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284892</v>
+        <v>0.8849423934284852</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017094</v>
+        <v>3.154767388017079</v>
       </c>
       <c r="J45" t="n">
-        <v>8.65692284143646</v>
+        <v>8.656922841436421</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039813</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430398</v>
+        <v>19.89512860430389</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863025</v>
+        <v>23.21667668863014</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720071</v>
+        <v>23.83115303720061</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538385</v>
+        <v>21.80084923538375</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821506</v>
+        <v>17.49710350821498</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622286</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524839</v>
+        <v>5.689030209524813</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745526</v>
+        <v>1.701966864745519</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557589</v>
+        <v>0.3693288190557573</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006028217938886168</v>
+        <v>0.00602821793888614</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875702</v>
+        <v>0.07681860236875668</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513129</v>
+        <v>0.6829872101513099</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507712</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471121</v>
+        <v>5.431075187471097</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388315</v>
+        <v>8.924924893388274</v>
       </c>
       <c r="L46" t="n">
-        <v>11.4208311194423</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676798</v>
+        <v>12.04166509676792</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521171</v>
+        <v>11.75534121521166</v>
       </c>
       <c r="O46" t="n">
-        <v>10.8579602693585</v>
+        <v>10.85796026935845</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035846</v>
+        <v>9.290860781035803</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987464</v>
+        <v>6.432510421987435</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871565</v>
+        <v>3.454043702871549</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008247</v>
+        <v>1.338738734008241</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937799</v>
+        <v>0.3282249373937784</v>
       </c>
       <c r="U46" t="n">
-        <v>0.004190105583750388</v>
+        <v>0.00419010558375037</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34719,10 +34719,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,22 +35023,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8628411009271</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>179.3869557635729</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>500.9700927793173</v>
-      </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9528840943865</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>146.2707129942796</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>110.3303957334049</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>743.0806699398598</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8767928905687</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L25" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M25" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N25" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O25" t="n">
         <v>273.0403949425647</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>342.4589418822804</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>584.8767928905687</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>365.0745974817616</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R27" t="n">
-        <v>35.54713057581766</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L28" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M28" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N28" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O28" t="n">
         <v>273.0403949425647</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>342.4589418822805</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>584.8767928905687</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>365.0745974817616</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R30" t="n">
-        <v>35.54713057581766</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L31" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M31" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N31" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O31" t="n">
         <v>273.0403949425647</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>52.62705738263642</v>
+        <v>423.2137310958514</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>365.0745974817616</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R33" t="n">
-        <v>35.54713057581766</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L34" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M34" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N34" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O34" t="n">
         <v>273.0403949425647</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8791189787068</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L37" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M37" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N37" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O37" t="n">
         <v>273.0403949425647</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M39" t="n">
-        <v>386.0962578925436</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R39" t="n">
-        <v>35.54713057581766</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L40" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M40" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O40" t="n">
         <v>273.0403949425647</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853397</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>788.2883285776127</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>584.8767928905687</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647162</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202835</v>
+        <v>746.8144420202834</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844781</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926759</v>
+        <v>791.3461665926757</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682952</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>295.039059052054</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>687.6609588258073</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902128</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647165</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.943154634655</v>
+        <v>273.9431546346549</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871817</v>
+        <v>295.4308789871816</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543272</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
